--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.mensing\Documents\Code\Java Programs\ChrisMensingSeleniumFramework\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD57073A-332C-408B-822B-295F3F79785B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033366B4-F1F5-4440-9A62-3B82618CEB92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Google Test Logins" sheetId="1" r:id="rId1"/>
-    <sheet name="EmailsToSend" sheetId="3" r:id="rId2"/>
-    <sheet name="EmailsSent" sheetId="5" r:id="rId3"/>
-    <sheet name="Searches" sheetId="2" r:id="rId4"/>
-    <sheet name="Translate" sheetId="4" r:id="rId5"/>
-    <sheet name="Last Run Log" sheetId="7" r:id="rId6"/>
+    <sheet name="Test Params" sheetId="8" r:id="rId1"/>
+    <sheet name="Amazon Test Logins" sheetId="1" r:id="rId2"/>
+    <sheet name="Searches" sheetId="2" r:id="rId3"/>
+    <sheet name="AddToCart" sheetId="9" r:id="rId4"/>
+    <sheet name="Last Run Log" sheetId="7" r:id="rId5"/>
+    <sheet name="BackEnd" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Broswer</t>
   </si>
@@ -50,36 +50,12 @@
     <t>Firefox</t>
   </si>
   <si>
-    <t>chriswolfplace.testAutomation@gmail.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>123test!</t>
   </si>
   <si>
-    <t>chrome</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Once Emails are Sent They will be added to this tab, and the Email find Class will look for them</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
     <t>Search Term</t>
   </si>
   <si>
@@ -95,101 +71,74 @@
     <t>Ascendum</t>
   </si>
   <si>
-    <t>Vora</t>
-  </si>
-  <si>
-    <t>Ascendum - A Global Digital</t>
-  </si>
-  <si>
     <t>Result Type</t>
   </si>
   <si>
     <t>partialLinkText</t>
   </si>
   <si>
-    <t>Vora Ventures and the Vora Group of Companies</t>
-  </si>
-  <si>
     <t>Dead Link?</t>
   </si>
   <si>
     <t>On Page</t>
   </si>
   <si>
-    <t>Reply</t>
-  </si>
-  <si>
-    <t>Delete</t>
-  </si>
-  <si>
-    <t>Delete After reply</t>
-  </si>
-  <si>
-    <t>This is a Test Email, It will be sent, Replied to, and then Deleted</t>
-  </si>
-  <si>
-    <t>Chriswolfplace.Test@gmail.com</t>
-  </si>
-  <si>
     <t>Valid Login</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>Rise Together</t>
-  </si>
-  <si>
-    <t>Rise le Chéile</t>
-  </si>
-  <si>
-    <t>Cum surge</t>
-  </si>
-  <si>
-    <t>veni vidi vici</t>
-  </si>
-  <si>
-    <t>I came, I saw, I conquered</t>
-  </si>
-  <si>
     <t>chriswolfplace.test@gmail.com</t>
   </si>
   <si>
-    <t>This tab Shows what emails I want to send</t>
-  </si>
-  <si>
     <t>This Tab indcates the terms to search</t>
   </si>
   <si>
-    <t>Testing translate</t>
-  </si>
-  <si>
     <t>Tes</t>
   </si>
   <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Source Language</t>
-  </si>
-  <si>
-    <t>Target Language</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
+    <t>Automation Testing</t>
+  </si>
+  <si>
+    <t>No Results</t>
+  </si>
+  <si>
+    <t>chriswolfplace.test1@gmail.com</t>
+  </si>
+  <si>
+    <t>123test!1</t>
+  </si>
+  <si>
+    <t>SearchTypes</t>
+  </si>
+  <si>
+    <t>EndSearchTypes</t>
+  </si>
+  <si>
+    <t>LinkText</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>img[alt='Master Selenium WebDriver programming fundamentals in Java: Also covers Basic Java programming, Eclipse,JUnit, Ant and Maven']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +153,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -227,15 +182,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -550,11 +500,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639602F0-9C30-4055-961A-958B0DEA7329}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC51DFAA-1C11-4A75-9AAC-D607CE56EB57}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +532,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -579,21 +543,21 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -601,13 +565,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -615,426 +579,153 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{99EF4010-4E2C-42FA-97EA-A4CA6127873F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{92F88115-F278-411F-9DA8-E5B93E6C65C8}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{F57198C8-7FA2-43A4-841B-7B1D644EBCAF}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{873E0CCB-52FF-427A-A21E-218F5EC26CBA}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{33D531B4-5435-4209-81B5-6733C9A916BA}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{FD243170-D7C5-4F95-80E0-295092D376A3}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{92F88115-F278-411F-9DA8-E5B93E6C65C8}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{F57198C8-7FA2-43A4-841B-7B1D644EBCAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20FD2061-E7BE-43AE-B5C4-B86539298093}">
-  <dimension ref="A1:G4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="128" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" t="s">
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{392D45DA-892C-4482-AA5A-9E3DBC9C8C44}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{5561A789-E02F-4723-AFD3-2E0CAE6C05EF}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E58DD735-9224-415F-96D9-6C6FBA665D47}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{48CCECA3-C0D2-4AAE-93EB-A8298AB579CD}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D6C38FF-8FB4-47E8-A713-7263489E970A}">
+          <x14:formula1>
+            <xm:f>BackEnd!$A$10:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5A30F1-0E2F-486A-B7A4-FA4268E7DC2A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383297DA-2D04-4309-8FE6-C786A5F2B552}">
-  <dimension ref="A1:I2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" customWidth="1"/>
-    <col min="4" max="4" width="80.42578125" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3744FAEC-CC65-45A8-B6C9-5FB231E104C9}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0AB832-2E30-4658-8557-E3A5E1528D0B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1044,4 +735,70 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0B6BE-BC84-4A65-8230-51F025406E2D}">
+  <dimension ref="A9:A31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -5,21 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.mensing\Documents\Code\Java Programs\ChrisMensingSeleniumFramework\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.mensing\Documents\Code\Java Programs\AutomationTrainingFinalProject\frameworkSelneiumBatch2\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{033366B4-F1F5-4440-9A62-3B82618CEB92}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9ACBE3-23DA-4F4F-8E19-6F5FD445E16E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
+    <workbookView xWindow="3000" yWindow="3600" windowWidth="21600" windowHeight="11400" tabRatio="710" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Params" sheetId="8" r:id="rId1"/>
+    <sheet name="Notes About this Excel" sheetId="14" r:id="rId1"/>
     <sheet name="Amazon Test Logins" sheetId="1" r:id="rId2"/>
-    <sheet name="Searches" sheetId="2" r:id="rId3"/>
-    <sheet name="AddToCart" sheetId="9" r:id="rId4"/>
-    <sheet name="Last Run Log" sheetId="7" r:id="rId5"/>
-    <sheet name="BackEnd" sheetId="10" r:id="rId6"/>
+    <sheet name="Simple Searches" sheetId="2" r:id="rId3"/>
+    <sheet name="Filtered Searches" sheetId="13" r:id="rId4"/>
+    <sheet name="ItemID" sheetId="16" state="hidden" r:id="rId5"/>
+    <sheet name="Results" sheetId="15" state="hidden" r:id="rId6"/>
+    <sheet name="Cart" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="BackEnd" sheetId="10" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="Broswers">BackEnd!$A$4:$A$8:INDEX(BackEnd!$A$4:$A$8,SUMPRODUCT(--(BackEnd!$A$4:$A$8&lt;&gt;"")))</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>Broswer</t>
   </si>
@@ -59,15 +64,6 @@
     <t>Search Term</t>
   </si>
   <si>
-    <t>Looking for Result</t>
-  </si>
-  <si>
-    <t>Result Found</t>
-  </si>
-  <si>
-    <t>At Date/Time</t>
-  </si>
-  <si>
     <t>Ascendum</t>
   </si>
   <si>
@@ -77,24 +73,12 @@
     <t>partialLinkText</t>
   </si>
   <si>
-    <t>Dead Link?</t>
-  </si>
-  <si>
-    <t>On Page</t>
-  </si>
-  <si>
     <t>Valid Login</t>
   </si>
   <si>
     <t>chriswolfplace.test@gmail.com</t>
   </si>
   <si>
-    <t>This Tab indcates the terms to search</t>
-  </si>
-  <si>
-    <t>Tes</t>
-  </si>
-  <si>
     <t>Automation Testing</t>
   </si>
   <si>
@@ -132,13 +116,429 @@
   </si>
   <si>
     <t>img[alt='Master Selenium WebDriver programming fundamentals in Java: Also covers Basic Java programming, Eclipse,JUnit, Ant and Maven']</t>
+  </si>
+  <si>
+    <t>Product Search Type</t>
+  </si>
+  <si>
+    <t>End Product Search Type</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This Tab indcates the terms to search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note the program looks at the result Type and uses the Looking for results to populate a FindElements to find the element. It also does not matter what page the result is on. </t>
+    </r>
+  </si>
+  <si>
+    <t>Broswers</t>
+  </si>
+  <si>
+    <t>FireFox</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>XPATH</t>
+  </si>
+  <si>
+    <t>All Departments</t>
+  </si>
+  <si>
+    <t>Audible Books &amp; Originals</t>
+  </si>
+  <si>
+    <t>Alexa Skills</t>
+  </si>
+  <si>
+    <t>Amazon Devices</t>
+  </si>
+  <si>
+    <t>Amazon Warehouse</t>
+  </si>
+  <si>
+    <t>Appliances</t>
+  </si>
+  <si>
+    <t>Apps &amp; Games</t>
+  </si>
+  <si>
+    <t>Arts, Crafts &amp; Sewing</t>
+  </si>
+  <si>
+    <t>Automotive Parts &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Beauty &amp; Personal Care</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>CDs &amp; Vinyl</t>
+  </si>
+  <si>
+    <t>Cell Phones &amp; Accessories</t>
+  </si>
+  <si>
+    <t>Clothing, Shoes &amp; Jewelry</t>
+  </si>
+  <si>
+    <t>Collectibles &amp; Fine Art</t>
+  </si>
+  <si>
+    <t>Computers</t>
+  </si>
+  <si>
+    <t>Courses</t>
+  </si>
+  <si>
+    <t>Credit and Payment Cards</t>
+  </si>
+  <si>
+    <t>Digital Music</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Garden &amp; Outdoor</t>
+  </si>
+  <si>
+    <t>Gift Cards</t>
+  </si>
+  <si>
+    <t>Grocery &amp; Gourmet Food</t>
+  </si>
+  <si>
+    <t>Handmade</t>
+  </si>
+  <si>
+    <t>Health, Household &amp; Baby Care</t>
+  </si>
+  <si>
+    <t>Home &amp; Business Services</t>
+  </si>
+  <si>
+    <t>Home &amp; Kitchen</t>
+  </si>
+  <si>
+    <t>Just for Prime</t>
+  </si>
+  <si>
+    <t>Kindle Store</t>
+  </si>
+  <si>
+    <t>Luggage &amp; Travel Gear</t>
+  </si>
+  <si>
+    <t>Luxury Beauty</t>
+  </si>
+  <si>
+    <t>Magazine Subscriptions</t>
+  </si>
+  <si>
+    <t>Movies &amp; TV</t>
+  </si>
+  <si>
+    <t>Musical Instruments</t>
+  </si>
+  <si>
+    <t>Office Products</t>
+  </si>
+  <si>
+    <t>Pet Supplies</t>
+  </si>
+  <si>
+    <t>Prime Pantry</t>
+  </si>
+  <si>
+    <t>Prime Video</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Sports &amp; Outdoors</t>
+  </si>
+  <si>
+    <t>Tools &amp; Home Improvement</t>
+  </si>
+  <si>
+    <t>Toys &amp; Games</t>
+  </si>
+  <si>
+    <t>Video Games</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Should Result be found</t>
+  </si>
+  <si>
+    <t>Sub Search Type</t>
+  </si>
+  <si>
+    <t>Star Rating</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This Tab indcates the terms to search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the program looks at the Ref to Simple Search to populate the Search Term and results details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Additional Search Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Text Must Match, IE in software you can click on Download under software Delivery Method
+Note2: Separate the Terms By a  :</t>
+    </r>
+  </si>
+  <si>
+    <t>All Sheets Must Not have Empty Cells, if there is an empty cell the row will be skipped in the data provider</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>If you are removing a Test, Delete the Entire Row, If you enter anything in that row Delete the Entire Row to prevent Extra calculations at startup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Sheets must have 2 Rows above the test data. </t>
+  </si>
+  <si>
+    <t>TestName</t>
+  </si>
+  <si>
+    <t>Login Data</t>
+  </si>
+  <si>
+    <t>Verify valid Login On Chrome</t>
+  </si>
+  <si>
+    <t>Verify valid Login On Firefox</t>
+  </si>
+  <si>
+    <t>Verify invalid Email On Chrome</t>
+  </si>
+  <si>
+    <t>Verify invalid Password On Chrome</t>
+  </si>
+  <si>
+    <t>Test Names need to Be unique to the Tab they are in</t>
+  </si>
+  <si>
+    <t>Verify Ascendum has no Results</t>
+  </si>
+  <si>
+    <t>Verify the book is Master Selenium is found with search Automation Testing</t>
+  </si>
+  <si>
+    <t>Test Name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ref To Simple Search
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Just Populate this with the Test Name of the Simple Search</t>
+    </r>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Verify The book Master Selenium does not retrun result when Prime Eligible</t>
+  </si>
+  <si>
+    <t>3 Star</t>
+  </si>
+  <si>
+    <t>SearchType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This Tab indcates the results you want tested</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note the program looks at the Ref to Search to populate the Search Term and results details.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ref To a Search
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Just Populate this with the Test Name of a Search 
+Note 2: One Result Test Per Search</t>
+    </r>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Filtered</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>No ID</t>
+  </si>
+  <si>
+    <t>Result Locator Text</t>
+  </si>
+  <si>
+    <t>Master Selenium WebDriver Book</t>
+  </si>
+  <si>
+    <t>Paperback</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +559,41 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,10 +617,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,11 +946,563 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639602F0-9C30-4055-961A-958B0DEA7329}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FF578A-AF5C-42A5-8B05-9C017EB855AC}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="132.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC51DFAA-1C11-4A75-9AAC-D607CE56EB57}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="10.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{E06CC7BD-65A2-4FB8-8572-5EB3B7B2F7A0}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3" xr:uid="{BD58DF7F-2A33-4A37-BA55-A3FBEDDD7C7D}">
+      <formula1>Broswers</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{33D531B4-5435-4209-81B5-6733C9A916BA}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{FD243170-D7C5-4F95-80E0-295092D376A3}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{92F88115-F278-411F-9DA8-E5B93E6C65C8}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{F57198C8-7FA2-43A4-841B-7B1D644EBCAF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D5FB1F10-EE05-4B07-841B-F25F88F3A186}">
+          <x14:formula1>
+            <xm:f>BackEnd!$A$4:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D6C38FF-8FB4-47E8-A713-7263489E970A}">
+          <x14:formula1>
+            <xm:f>BackEnd!$A$10:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3295A145-A24A-4971-BA9C-635E98E98A74}">
+          <x14:formula1>
+            <xm:f>BackEnd!$A$4:$A$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481859A-3089-43B6-A834-0C76241877F0}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576 H3:H1048576" xr:uid="{7B640E7F-2BBA-473B-A0A5-4047A2B1B736}">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{89918396-C10C-4F7D-838F-A9FB01B2740E}">
+      <formula1>"Any, 1 Star, 2 Star, 3 Star, 4 Star"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92FB2D19-68F7-4CA4-A370-AEC39B292051}">
+          <x14:formula1>
+            <xm:f>BackEnd!$B$11:$B$55</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDB5B45-EDFB-43F8-AD41-673A561A912A}">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="125.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D9FCDC05-6EDF-4A5C-8A58-03F6EE629FAA}">
+          <x14:formula1>
+            <xm:f>BackEnd!$A$10:$A$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F126285-F1DA-4D0A-BD80-46C0E35D675A}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5A30F1-0E2F-486A-B7A4-FA4268E7DC2A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,288 +1511,308 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC51DFAA-1C11-4A75-9AAC-D607CE56EB57}">
-  <dimension ref="A1:D6"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0B6BE-BC84-4A65-8230-51F025406E2D}">
+  <dimension ref="A3:B65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{33D531B4-5435-4209-81B5-6733C9A916BA}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{FD243170-D7C5-4F95-80E0-295092D376A3}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{92F88115-F278-411F-9DA8-E5B93E6C65C8}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{F57198C8-7FA2-43A4-841B-7B1D644EBCAF}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="128" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8D6C38FF-8FB4-47E8-A713-7263489E970A}">
-          <x14:formula1>
-            <xm:f>BackEnd!$A$10:$A$30</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5A30F1-0E2F-486A-B7A4-FA4268E7DC2A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0AB832-2E30-4658-8557-E3A5E1528D0B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3E0B6BE-BC84-4A65-8230-51F025406E2D}">
-  <dimension ref="A9:A31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/TestData.xlsx
+++ b/src/main/java/resources/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Selenium\frameworkSelneiumBatch2-ChrisMensing\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\christopher.mensing\Documents\Code\Java Programs\AutomationTrainingFinalProject\frameworkSelneiumBatch2\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB65F005-9B27-48B1-94BD-54EDD24B3748}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E249BC0-88EA-46C8-B443-350E77FBEFB1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="16440" tabRatio="710" activeTab="3" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="710" activeTab="4" xr2:uid="{3D83174F-648F-435E-BEBC-5633B04CF0E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes About this Excel" sheetId="14" r:id="rId1"/>
@@ -25,17 +25,23 @@
   <definedNames>
     <definedName name="Broswers">BackEnd!$A$4:$A$8:INDEX(BackEnd!$A$4:$A$8,SUMPRODUCT(--(BackEnd!$A$4:$A$8&lt;&gt;"")))</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>Broswer</t>
   </si>
@@ -365,23 +371,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Additional Search Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note: Text Must Match, IE in software you can click on Download under software Delivery Method
-Note2: Separate the Terms By a  :</t>
-    </r>
-  </si>
-  <si>
     <t>All Sheets Must Not have Empty Cells, if there is an empty cell the row will be skipped in the data provider</t>
   </si>
   <si>
@@ -500,9 +489,6 @@
     <t>Master Selenium WebDriver Book</t>
   </si>
   <si>
-    <t>Paperback</t>
-  </si>
-  <si>
     <t>Expected Results</t>
   </si>
   <si>
@@ -558,6 +544,41 @@
   </si>
   <si>
     <t>No Product Results</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Additional Search Details
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note: Text Must Match, IE in software you can click on Download under software Delivery Method
+Note2: Separate the Terms By a  :N:</t>
+    </r>
+  </si>
+  <si>
+    <t>Paperback:N:Used</t>
+  </si>
+  <si>
+    <t>Software Test Automation</t>
+  </si>
+  <si>
+    <t>Verify The Book QuickTest  Professional Unplugged is Present</t>
+  </si>
+  <si>
+    <t>QuickTest Professional Unplugged</t>
+  </si>
+  <si>
+    <t>img[alt='QuickTest Professional Unplugged']</t>
+  </si>
+  <si>
+    <t>img[alt='Software Test Automation']</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1010,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -999,22 +1020,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1065,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1053,7 +1074,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1070,7 +1091,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1087,7 +1108,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1104,7 +1125,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1121,7 +1142,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1199,7 +1220,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1208,15 +1229,15 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1225,7 +1246,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1233,7 +1254,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1242,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -1277,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9481859A-3089-43B6-A834-0C76241877F0}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,7 +1330,7 @@
     </row>
     <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1318,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -1333,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="J2" t="s">
         <v>78</v>
@@ -1341,7 +1362,7 @@
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1350,22 +1371,22 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -1373,7 +1394,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1382,25 +1403,57 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1408,7 +1461,7 @@
     <mergeCell ref="D1:J1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G1048576 J3:J1048576" xr:uid="{7B640E7F-2BBA-473B-A0A5-4047A2B1B736}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J1048576 G3:G1048576" xr:uid="{7B640E7F-2BBA-473B-A0A5-4047A2B1B736}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H1048576" xr:uid="{89918396-C10C-4F7D-838F-A9FB01B2740E}">
@@ -1434,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDDB5B45-EDFB-43F8-AD41-673A561A912A}">
-  <dimension ref="A2:K4"/>
+  <dimension ref="A2:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,82 +1509,104 @@
   <sheetData>
     <row r="2" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>115</v>
-      </c>
-      <c r="J2" t="s">
-        <v>116</v>
-      </c>
-      <c r="K2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1545,7 +1620,7 @@
           <x14:formula1>
             <xm:f>BackEnd!$A$10:$A$30</xm:f>
           </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1570,7 +1645,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1582,23 +1657,23 @@
     </row>
     <row r="2" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
